--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col1a2-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H2">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I2">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J2">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>432.3056365592867</v>
+        <v>415.1099287299333</v>
       </c>
       <c r="R2">
-        <v>3890.750729033581</v>
+        <v>3735.989358569399</v>
       </c>
       <c r="S2">
-        <v>0.01539134090198486</v>
+        <v>0.01439959984508926</v>
       </c>
       <c r="T2">
-        <v>0.01539134090198487</v>
+        <v>0.01439959984508926</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H3">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I3">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J3">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>180.131470582784</v>
+        <v>187.07221750784</v>
       </c>
       <c r="R3">
-        <v>1621.183235245056</v>
+        <v>1683.64995757056</v>
       </c>
       <c r="S3">
-        <v>0.006413205464961057</v>
+        <v>0.006489281242894425</v>
       </c>
       <c r="T3">
-        <v>0.006413205464961062</v>
+        <v>0.006489281242894425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H4">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I4">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J4">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>14.99515088286533</v>
+        <v>38.60835414244001</v>
       </c>
       <c r="R4">
-        <v>134.956357945788</v>
+        <v>347.47518728196</v>
       </c>
       <c r="S4">
-        <v>0.0005338710847070534</v>
+        <v>0.001339271387773341</v>
       </c>
       <c r="T4">
-        <v>0.0005338710847070538</v>
+        <v>0.001339271387773341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H5">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I5">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J5">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>17.37557993727333</v>
+        <v>25.05678260334667</v>
       </c>
       <c r="R5">
-        <v>156.38021943546</v>
+        <v>225.51104343012</v>
       </c>
       <c r="S5">
-        <v>0.0006186212983776042</v>
+        <v>0.0008691857696526554</v>
       </c>
       <c r="T5">
-        <v>0.0006186212983776045</v>
+        <v>0.0008691857696526555</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.399996</v>
+        <v>67.91996</v>
       </c>
       <c r="H6">
-        <v>196.199988</v>
+        <v>203.75988</v>
       </c>
       <c r="I6">
-        <v>0.0234573392998008</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="J6">
-        <v>0.02345733929980081</v>
+        <v>0.02375577759132129</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>14.052235540536</v>
+        <v>18.98141010130667</v>
       </c>
       <c r="R6">
-        <v>126.470119864824</v>
+        <v>170.83269091176</v>
       </c>
       <c r="S6">
-        <v>0.0005003005497702224</v>
+        <v>0.0006584393459116074</v>
       </c>
       <c r="T6">
-        <v>0.0005003005497702227</v>
+        <v>0.0006584393459116074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J7">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>17341.93142546859</v>
+        <v>16034.29937106992</v>
       </c>
       <c r="R7">
-        <v>156077.3828292173</v>
+        <v>144308.6943396292</v>
       </c>
       <c r="S7">
-        <v>0.6174233132665304</v>
+        <v>0.5562080758853314</v>
       </c>
       <c r="T7">
-        <v>0.6174233132665305</v>
+        <v>0.5562080758853313</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J8">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>7225.9701152128</v>
@@ -948,10 +948,10 @@
         <v>65033.7310369152</v>
       </c>
       <c r="S8">
-        <v>0.2572656009668812</v>
+        <v>0.2506590928094436</v>
       </c>
       <c r="T8">
-        <v>0.2572656009668813</v>
+        <v>0.2506590928094437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J9">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>601.5301590673167</v>
+        <v>1491.31077263855</v>
       </c>
       <c r="R9">
-        <v>5413.77143160585</v>
+        <v>13421.79695374695</v>
       </c>
       <c r="S9">
-        <v>0.02141622721997647</v>
+        <v>0.05173154599401785</v>
       </c>
       <c r="T9">
-        <v>0.02141622721997648</v>
+        <v>0.05173154599401785</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>7870.55835</v>
       </c>
       <c r="I10">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J10">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>697.0210200084167</v>
+        <v>967.8591759226834</v>
       </c>
       <c r="R10">
-        <v>6273.18918007575</v>
+        <v>8710.73258330415</v>
       </c>
       <c r="S10">
-        <v>0.0248159802407006</v>
+        <v>0.03357372077879553</v>
       </c>
       <c r="T10">
-        <v>0.02481598024070061</v>
+        <v>0.03357372077879554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>7870.55835</v>
       </c>
       <c r="I11">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269553</v>
       </c>
       <c r="J11">
-        <v>0.9409906676183405</v>
+        <v>0.9176057312269554</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>563.7051301437001</v>
+        <v>733.1879846396334</v>
       </c>
       <c r="R11">
-        <v>5073.3461712933</v>
+        <v>6598.6918617567</v>
       </c>
       <c r="S11">
-        <v>0.02006954592425161</v>
+        <v>0.02543329575936706</v>
       </c>
       <c r="T11">
-        <v>0.02006954592425162</v>
+        <v>0.02543329575936706</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H12">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I12">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J12">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>1.454774657778333</v>
+        <v>8.413920172714999</v>
       </c>
       <c r="R12">
-        <v>13.092971920005</v>
+        <v>75.72528155443499</v>
       </c>
       <c r="S12">
-        <v>5.179421871906123E-05</v>
+        <v>0.00029186746745931</v>
       </c>
       <c r="T12">
-        <v>5.179421871906125E-05</v>
+        <v>0.00029186746745931</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H13">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I13">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J13">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>0.6061699786239999</v>
+        <v>3.791792476416</v>
       </c>
       <c r="R13">
-        <v>5.455529807615999</v>
+        <v>34.126132287744</v>
       </c>
       <c r="S13">
-        <v>2.158141832201479E-05</v>
+        <v>0.0001315321330016486</v>
       </c>
       <c r="T13">
-        <v>2.158141832201481E-05</v>
+        <v>0.0001315321330016486</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H14">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I14">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J14">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.05046097864366666</v>
+        <v>0.782558034081</v>
       </c>
       <c r="R14">
-        <v>0.4541488077929999</v>
+        <v>7.043022306728999</v>
       </c>
       <c r="S14">
-        <v>1.796557941584783E-06</v>
+        <v>2.714587574622269E-05</v>
       </c>
       <c r="T14">
-        <v>1.796557941584783E-06</v>
+        <v>2.714587574622269E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H15">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I15">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J15">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.05847148688166665</v>
+        <v>0.507879368857</v>
       </c>
       <c r="R15">
-        <v>0.526243381935</v>
+        <v>4.570914319712999</v>
       </c>
       <c r="S15">
-        <v>2.081755386777722E-06</v>
+        <v>1.76176457727544E-05</v>
       </c>
       <c r="T15">
-        <v>2.081755386777723E-06</v>
+        <v>1.76176457727544E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.220081</v>
+        <v>1.376679</v>
       </c>
       <c r="H16">
-        <v>0.6602429999999999</v>
+        <v>4.130037</v>
       </c>
       <c r="I16">
-        <v>7.89375383209421E-05</v>
+        <v>0.0004815091195378001</v>
       </c>
       <c r="J16">
-        <v>7.893753832094211E-05</v>
+        <v>0.0004815091195378002</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.04728792414599999</v>
+        <v>0.384736808986</v>
       </c>
       <c r="R16">
-        <v>0.425591317314</v>
+        <v>3.462631280874</v>
       </c>
       <c r="S16">
-        <v>1.683587951503549E-06</v>
+        <v>1.334599755786437E-05</v>
       </c>
       <c r="T16">
-        <v>1.68358795150355E-06</v>
+        <v>1.334599755786437E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H17">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J17">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>652.0947888554512</v>
+        <v>1007.490234634016</v>
       </c>
       <c r="R17">
-        <v>5868.85309969906</v>
+        <v>9067.412111706142</v>
       </c>
       <c r="S17">
-        <v>0.02321647544446407</v>
+        <v>0.03494846839956781</v>
       </c>
       <c r="T17">
-        <v>0.02321647544446407</v>
+        <v>0.03494846839956781</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H18">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I18">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J18">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>271.7123797200213</v>
+        <v>454.0325809289386</v>
       </c>
       <c r="R18">
-        <v>2445.411417480192</v>
+        <v>4086.293228360448</v>
       </c>
       <c r="S18">
-        <v>0.009673752803329182</v>
+        <v>0.01574977380573162</v>
       </c>
       <c r="T18">
-        <v>0.009673752803329187</v>
+        <v>0.01574977380573162</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H19">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I19">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J19">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>22.61885786787956</v>
+        <v>93.70419034016032</v>
       </c>
       <c r="R19">
-        <v>203.569720810916</v>
+        <v>843.337713061443</v>
       </c>
       <c r="S19">
-        <v>0.0008052972777058236</v>
+        <v>0.003250471143474459</v>
       </c>
       <c r="T19">
-        <v>0.0008052972777058237</v>
+        <v>0.003250471143474459</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H20">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I20">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J20">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>26.20952440180222</v>
+        <v>60.81392430544122</v>
       </c>
       <c r="R20">
-        <v>235.88571961622</v>
+        <v>547.325318748971</v>
       </c>
       <c r="S20">
-        <v>0.0009331354736840364</v>
+        <v>0.002109552468877759</v>
       </c>
       <c r="T20">
-        <v>0.0009331354736840366</v>
+        <v>0.00210955246887776</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>98.65010533333333</v>
+        <v>164.8447596666666</v>
       </c>
       <c r="H21">
-        <v>295.950316</v>
+        <v>494.534279</v>
       </c>
       <c r="I21">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555414</v>
       </c>
       <c r="J21">
-        <v>0.03538332009630534</v>
+        <v>0.05765632735555416</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>21.196553532552</v>
+        <v>46.06872539801756</v>
       </c>
       <c r="R21">
-        <v>190.768981792968</v>
+        <v>414.618528582158</v>
       </c>
       <c r="S21">
-        <v>0.0007546590971222234</v>
+        <v>0.001598061537902498</v>
       </c>
       <c r="T21">
-        <v>0.0007546590971222235</v>
+        <v>0.001598061537902498</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H22">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I22">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J22">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>1.653774076503334</v>
+        <v>8.748471347196666</v>
       </c>
       <c r="R22">
-        <v>14.88396668853</v>
+        <v>78.73624212476999</v>
       </c>
       <c r="S22">
-        <v>5.887917814098926E-05</v>
+        <v>0.0003034725934917804</v>
       </c>
       <c r="T22">
-        <v>5.887917814098928E-05</v>
+        <v>0.0003034725934917804</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H23">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I23">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J23">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>0.6890883005440001</v>
+        <v>3.942560323072</v>
       </c>
       <c r="R23">
-        <v>6.201794704896001</v>
+        <v>35.48304290764801</v>
       </c>
       <c r="S23">
-        <v>2.453355230261401E-05</v>
+        <v>0.0001367620649090702</v>
       </c>
       <c r="T23">
-        <v>2.453355230261403E-05</v>
+        <v>0.0001367620649090702</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H24">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I24">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J24">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>0.05736356342866667</v>
+        <v>0.8136738165020001</v>
       </c>
       <c r="R24">
-        <v>0.5162720708580001</v>
+        <v>7.323064348518001</v>
       </c>
       <c r="S24">
-        <v>2.042310082075829E-06</v>
+        <v>2.822523999342374E-05</v>
       </c>
       <c r="T24">
-        <v>2.04231008207583E-06</v>
+        <v>2.822523999342374E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H25">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I25">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J25">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>0.06646983345666667</v>
+        <v>0.5280734800273333</v>
       </c>
       <c r="R25">
-        <v>0.59822850111</v>
+        <v>4.752661320246</v>
       </c>
       <c r="S25">
-        <v>2.366519841314658E-06</v>
+        <v>1.831815207230194E-05</v>
       </c>
       <c r="T25">
-        <v>2.36651984131466E-06</v>
+        <v>1.831815207230194E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.250186</v>
+        <v>1.431418</v>
       </c>
       <c r="H26">
-        <v>0.7505580000000001</v>
+        <v>4.294254</v>
       </c>
       <c r="I26">
-        <v>8.973544723244271E-05</v>
+        <v>0.0005006547066313635</v>
       </c>
       <c r="J26">
-        <v>8.973544723244272E-05</v>
+        <v>0.0005006547066313636</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>0.053756465076</v>
+        <v>0.4000345713453334</v>
       </c>
       <c r="R26">
-        <v>0.483808185684</v>
+        <v>3.600311142108001</v>
       </c>
       <c r="S26">
-        <v>1.913886865448935E-06</v>
+        <v>1.387665616478722E-05</v>
       </c>
       <c r="T26">
-        <v>1.913886865448936E-06</v>
+        <v>1.387665616478722E-05</v>
       </c>
     </row>
   </sheetData>
